--- a/biology/Histoire de la zoologie et de la botanique/Gaertn/Gaertn..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaertn/Gaertn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gärtner ou Gaertner est un botaniste allemand, né le 12 mars 1732 à Calw dans le duché de Wurtemberg et mort le 14 juillet 1791 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Joseph Gärtner et de Eva Maria née Wagner. Il étudie le droit en 1750 et la médecin à l’université de Göttingen, où il suit les cours de Albrecht von Haller (1708-1777), et de Tübingen. C’est dans cette dernière qu’il obtient un titre de docteur en médecine. Il voyage à travers l'Europe et séjourne notamment à Montpellier, où il fréquente François Boissier de Sauvages de Lacroix (1706-1767), à Londres où il rencontre Philip Miller (1691-1771) et William Hudson (1730-1793), et à Leyde où il étudie auprès d'Adriaan van Royen (1704-1779), directeur du jardin botanique de la ville. Gärtner enseigne l’anatomie à Tübingen de 1761 à 1768 puis la botanique et l’histoire naturelle à Saint-Pétersbourg à partir de 1768. En 1770, considérant que le climat est trop rude, il revient en Allemagne et s’installe à Calw où il dirige le jardin botanique et les collections d’histoire naturelle. Il se consacre dès lors presque exclusivement à la rédaction de son ouvrage De fructibus et siminibus plantarum (1788-1791) qu’il avait entreprise quelques années plus tôt.
 Il est membre de la Royal Society (en 1761) et de l’Académie des sciences de Saint-Pétersbourg. Il est notamment l’auteur du Supplementum carpologiae (1805-1807). On le considère comme le fondateur de la carpologie. Sir Joseph Banks (1743-1820) et Carl Peter Thunberg (1743-1828) de retour de leur tour du monde, lui confient les fruits qu’ils avaient récoltés.
